--- a/UniApplikation/OutputFiles/WPM6.xlsx
+++ b/UniApplikation/OutputFiles/WPM6.xlsx
@@ -32,64 +32,64 @@
     <t>Studentenname</t>
   </si>
   <si>
-    <t>Student17</t>
+    <t>Student33</t>
+  </si>
+  <si>
+    <t>Student123</t>
+  </si>
+  <si>
+    <t>Student138</t>
+  </si>
+  <si>
+    <t>Student49</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student125</t>
+  </si>
+  <si>
+    <t>Student40</t>
+  </si>
+  <si>
+    <t>Student118</t>
+  </si>
+  <si>
+    <t>Student133</t>
+  </si>
+  <si>
+    <t>Student137</t>
+  </si>
+  <si>
+    <t>Student117</t>
+  </si>
+  <si>
+    <t>Student135</t>
   </si>
   <si>
     <t>Student120</t>
   </si>
   <si>
+    <t>Student31</t>
+  </si>
+  <si>
+    <t>Student150</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student30</t>
+  </si>
+  <si>
+    <t>Student111</t>
+  </si>
+  <si>
     <t>Student82</t>
-  </si>
-  <si>
-    <t>Student122</t>
-  </si>
-  <si>
-    <t>Student138</t>
-  </si>
-  <si>
-    <t>Student33</t>
-  </si>
-  <si>
-    <t>Student49</t>
-  </si>
-  <si>
-    <t>Student118</t>
-  </si>
-  <si>
-    <t>Student137</t>
-  </si>
-  <si>
-    <t>Student123</t>
-  </si>
-  <si>
-    <t>Student117</t>
-  </si>
-  <si>
-    <t>Student75</t>
-  </si>
-  <si>
-    <t>Student20</t>
-  </si>
-  <si>
-    <t>Student14</t>
-  </si>
-  <si>
-    <t>Student147</t>
-  </si>
-  <si>
-    <t>Student146</t>
-  </si>
-  <si>
-    <t>Student8</t>
-  </si>
-  <si>
-    <t>Student111</t>
-  </si>
-  <si>
-    <t>Student31</t>
-  </si>
-  <si>
-    <t>Student130</t>
   </si>
 </sst>
 </file>

--- a/UniApplikation/OutputFiles/WPM6.xlsx
+++ b/UniApplikation/OutputFiles/WPM6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,64 +32,64 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student133</t>
+  </si>
+  <si>
+    <t>Student147</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student25</t>
+  </si>
+  <si>
+    <t>Student146</t>
+  </si>
+  <si>
+    <t>Student75</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student138</t>
+  </si>
+  <si>
+    <t>Student69</t>
+  </si>
+  <si>
+    <t>Student145</t>
+  </si>
+  <si>
+    <t>Student122</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student40</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student140</t>
+  </si>
+  <si>
+    <t>Student123</t>
+  </si>
+  <si>
+    <t>Student143</t>
+  </si>
+  <si>
+    <t>Student82</t>
+  </si>
+  <si>
+    <t>Student120</t>
+  </si>
+  <si>
     <t>Student33</t>
-  </si>
-  <si>
-    <t>Student123</t>
-  </si>
-  <si>
-    <t>Student138</t>
-  </si>
-  <si>
-    <t>Student49</t>
-  </si>
-  <si>
-    <t>Student7</t>
-  </si>
-  <si>
-    <t>Student125</t>
-  </si>
-  <si>
-    <t>Student40</t>
-  </si>
-  <si>
-    <t>Student118</t>
-  </si>
-  <si>
-    <t>Student133</t>
-  </si>
-  <si>
-    <t>Student137</t>
-  </si>
-  <si>
-    <t>Student117</t>
-  </si>
-  <si>
-    <t>Student135</t>
-  </si>
-  <si>
-    <t>Student120</t>
-  </si>
-  <si>
-    <t>Student31</t>
-  </si>
-  <si>
-    <t>Student150</t>
-  </si>
-  <si>
-    <t>Student14</t>
-  </si>
-  <si>
-    <t>Student20</t>
-  </si>
-  <si>
-    <t>Student30</t>
-  </si>
-  <si>
-    <t>Student111</t>
-  </si>
-  <si>
-    <t>Student82</t>
   </si>
 </sst>
 </file>

--- a/UniApplikation/OutputFiles/WPM6.xlsx
+++ b/UniApplikation/OutputFiles/WPM6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,64 +32,64 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student140</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student118</t>
+  </si>
+  <si>
+    <t>Student75</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student69</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student31</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student82</t>
+  </si>
+  <si>
+    <t>Student137</t>
+  </si>
+  <si>
     <t>Student133</t>
   </si>
   <si>
-    <t>Student147</t>
-  </si>
-  <si>
-    <t>Student14</t>
-  </si>
-  <si>
-    <t>Student25</t>
-  </si>
-  <si>
-    <t>Student146</t>
-  </si>
-  <si>
-    <t>Student75</t>
+    <t>Student40</t>
+  </si>
+  <si>
+    <t>Student143</t>
+  </si>
+  <si>
+    <t>Student33</t>
   </si>
   <si>
     <t>Student20</t>
   </si>
   <si>
-    <t>Student138</t>
-  </si>
-  <si>
-    <t>Student69</t>
-  </si>
-  <si>
-    <t>Student145</t>
-  </si>
-  <si>
-    <t>Student122</t>
-  </si>
-  <si>
-    <t>Student7</t>
-  </si>
-  <si>
-    <t>Student40</t>
-  </si>
-  <si>
-    <t>Student8</t>
-  </si>
-  <si>
-    <t>Student140</t>
-  </si>
-  <si>
-    <t>Student123</t>
-  </si>
-  <si>
-    <t>Student143</t>
-  </si>
-  <si>
-    <t>Student82</t>
-  </si>
-  <si>
     <t>Student120</t>
   </si>
   <si>
-    <t>Student33</t>
+    <t>Student57</t>
+  </si>
+  <si>
+    <t>Student125</t>
   </si>
 </sst>
 </file>
